--- a/математика/Практика 5.xlsx
+++ b/математика/Практика 5.xlsx
@@ -1,29 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STUDENT\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C1A259-1A21-4281-A91F-36D362EBB0DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
   <si>
     <t>A1</t>
   </si>
@@ -42,188 +53,339 @@
     <t>A3</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V5</t>
   </si>
   <si>
     <t>Запасы</t>
   </si>
   <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>40(140)-</t>
+  </si>
+  <si>
+    <t>19(90)</t>
+  </si>
+  <si>
+    <t>25(0)+</t>
+  </si>
+  <si>
+    <t>230.90.0</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>27(160)-</t>
+  </si>
+  <si>
+    <t>18(90)+</t>
+  </si>
+  <si>
+    <t>250.90.0</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>46 (0+20=20)</t>
+  </si>
+  <si>
+    <t>27+16</t>
+  </si>
+  <si>
+    <t>36+13</t>
+  </si>
+  <si>
+    <t>40(20)-</t>
+  </si>
+  <si>
+    <t>45(150)</t>
+  </si>
+  <si>
+    <t>170.150.0</t>
+  </si>
+  <si>
     <t>Потребности</t>
   </si>
   <si>
     <t>140.0</t>
   </si>
   <si>
-    <t>19(90)</t>
-  </si>
-  <si>
     <t>90.0</t>
   </si>
   <si>
-    <t>230.90.0</t>
-  </si>
-  <si>
     <t>160.0</t>
   </si>
   <si>
-    <t>250.90.0</t>
-  </si>
-  <si>
     <t>110.20.0</t>
   </si>
   <si>
-    <t>45(150)</t>
-  </si>
-  <si>
     <t>150.0</t>
   </si>
   <si>
-    <t>170.150.0</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>V3</t>
-  </si>
-  <si>
-    <t>V4</t>
-  </si>
-  <si>
-    <t>V5</t>
-  </si>
-  <si>
     <t>u1+v1=40</t>
   </si>
   <si>
+    <t>u1=0</t>
+  </si>
+  <si>
+    <t>v1=40</t>
+  </si>
+  <si>
     <t>u1+v2=19</t>
   </si>
   <si>
+    <t>u2=2</t>
+  </si>
+  <si>
+    <t>v2=19</t>
+  </si>
+  <si>
+    <t>u1+v3=25</t>
+  </si>
+  <si>
+    <t>u3=24</t>
+  </si>
+  <si>
+    <t>v3=25</t>
+  </si>
+  <si>
     <t>u2+v3=27</t>
   </si>
   <si>
+    <t>v4=16</t>
+  </si>
+  <si>
     <t>u2+v4=18</t>
   </si>
   <si>
+    <t>v5=21</t>
+  </si>
+  <si>
     <t>u3+v4=40</t>
   </si>
   <si>
     <t>u3+v5=45</t>
   </si>
   <si>
-    <t>u1=0</t>
-  </si>
-  <si>
-    <t>v1=40</t>
-  </si>
-  <si>
-    <t>v2=19</t>
-  </si>
-  <si>
-    <t>36+13</t>
-  </si>
-  <si>
-    <t>40(140)-</t>
-  </si>
-  <si>
-    <t>18(90)+</t>
-  </si>
-  <si>
-    <t>40(20)-</t>
-  </si>
-  <si>
-    <t>u1+v3=25</t>
-  </si>
-  <si>
-    <t>v3=25</t>
-  </si>
-  <si>
-    <t>u2=2</t>
-  </si>
-  <si>
-    <t>v4=16</t>
-  </si>
-  <si>
-    <t>u3=24</t>
-  </si>
-  <si>
-    <t>v5=21</t>
-  </si>
-  <si>
-    <t>27+16</t>
-  </si>
-  <si>
-    <t>25(0)+</t>
-  </si>
-  <si>
-    <t>27(160)-</t>
+    <t>40(120)-</t>
   </si>
   <si>
     <t>25(0+20=20)+</t>
   </si>
   <si>
+    <t>27(160-20=140)-</t>
+  </si>
+  <si>
     <t>18(90+20=110)+</t>
   </si>
   <si>
-    <t>27(160-20=140)-</t>
-  </si>
-  <si>
     <t>40(20-20=0)-</t>
   </si>
   <si>
-    <t>46 (0+20=20)</t>
-  </si>
-  <si>
-    <t>40(120)-</t>
+    <t>u3=-20</t>
+  </si>
+  <si>
+    <t>v5=65</t>
   </si>
   <si>
     <t>u3+v1=20</t>
+  </si>
+  <si>
+    <t>F=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,18 +394,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -251,28 +599,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -321,7 +958,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -356,7 +993,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -530,52 +1167,47 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="15.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:8">
       <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="3:9">
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>0</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -596,9 +1228,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9">
       <c r="C4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>49</v>
@@ -619,9 +1251,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9">
       <c r="C5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>46</v>
@@ -642,7 +1274,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:8">
       <c r="D6">
         <v>140</v>
       </c>
@@ -659,7 +1291,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:8">
       <c r="D9">
         <v>40</v>
       </c>
@@ -676,45 +1308,45 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:11">
       <c r="D10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K10">
         <f>40*140+19*90+27*160+18*90+40*20+45*150</f>
         <v>20800</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9">
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G11" s="1">
         <v>25</v>
@@ -723,15 +1355,15 @@
         <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1">
         <v>49</v>
@@ -739,126 +1371,126 @@
       <c r="E12" s="1">
         <v>26</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>39</v>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="H12" s="1">
         <v>38</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13">
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
       <c r="E21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8">
       <c r="D26">
         <v>40</v>
       </c>
@@ -875,41 +1507,41 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:9">
       <c r="D27" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>55</v>
+        <v>14</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G28" s="1">
         <v>25</v>
@@ -918,15 +1550,15 @@
         <v>35</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1">
         <v>49</v>
@@ -934,127 +1566,273 @@
       <c r="E29" s="1">
         <v>26</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>51</v>
+      <c r="F29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="H29" s="1">
         <v>38</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30">
         <v>24</v>
       </c>
       <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8">
+      <c r="D43">
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <v>19</v>
+      </c>
+      <c r="F43">
+        <v>25</v>
+      </c>
+      <c r="G43">
+        <v>16</v>
+      </c>
+      <c r="H43">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9">
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="1">
+        <v>25</v>
+      </c>
+      <c r="H45" s="1">
+        <v>35</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="1">
+        <v>49</v>
+      </c>
+      <c r="E46" s="1">
+        <v>26</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" s="1">
+        <v>38</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47">
+        <v>-20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D34" t="s">
+      <c r="I47" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9">
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H48" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>33</v>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53">
+        <f>40*120+46*20+19*90+25*20+27*140+18*110+45*150</f>
+        <v>20440</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>